--- a/DataAnalysis.xlsx
+++ b/DataAnalysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel Halperin\OneDrive\Desktop\Engineering\Java\BattleShips\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33F74B80-BAF3-4907-9A29-A13F8B767875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A4EAF4-CE90-41F3-8A5D-D1C56A96F07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D879A7E3-4BDF-400B-AE46-BB52EA1A1C5C}"/>
   </bookViews>
@@ -33,10 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DDE8F2-DC94-489E-B37D-18FFCA2F7875}">
   <dimension ref="E7:Y91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView tabSelected="1" topLeftCell="E65" workbookViewId="0">
+      <selection activeCell="U78" sqref="U78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2640,28 +2636,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J7:S16">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20:O29">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E37:N46">
     <cfRule type="colorScale" priority="5">
       <colorScale>
@@ -2674,8 +2648,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P37:Y46">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="F20:O29">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2722,6 +2696,28 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J7:S16">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P37:Y46">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DataAnalysis.xlsx
+++ b/DataAnalysis.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel Halperin\OneDrive\Desktop\Engineering\Java\BattleShips\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/913cb725b72272e0/Desktop/Engineering/Java/BattleShips/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A4EAF4-CE90-41F3-8A5D-D1C56A96F07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -404,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DDE8F2-DC94-489E-B37D-18FFCA2F7875}">
   <dimension ref="E7:Y91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E65" workbookViewId="0">
-      <selection activeCell="U78" sqref="U78"/>
+    <sheetView tabSelected="1" topLeftCell="D64" workbookViewId="0">
+      <selection activeCell="T73" sqref="T73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
